--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\NT2005\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofleicester-my.sharepoint.com/personal/wjf6_student_le_ac_uk/Documents/Documents/GitHub/NT2005/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E0B010-AE0B-4470-89F0-F86A3E9577B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{B46BAE08-B5D6-4389-A317-07582921620F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E8C8CBF6-2B8F-4B4C-875F-C5ABEF629892}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="10180" windowHeight="6000" xr2:uid="{96EC98FB-4F92-4B83-BA7C-D6BCA2E7BFBF}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{96EC98FB-4F92-4B83-BA7C-D6BCA2E7BFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Neuron</t>
   </si>
@@ -54,7 +54,13 @@
     <t>nan- stimulus of neuron seems to stop then appears erratic after 440ms</t>
   </si>
   <si>
-    <t xml:space="preserve">nan- </t>
+    <t>nan- stimulus data is too limited</t>
+  </si>
+  <si>
+    <t>nan- limited plotted points on graph</t>
+  </si>
+  <si>
+    <t>nan- data is too cluttered</t>
   </si>
 </sst>
 </file>
@@ -408,19 +414,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFAD908-A495-4AF2-83ED-59080B52F1EB}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="61.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,8 +450,11 @@
       <c r="C2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -455,8 +464,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -466,8 +478,11 @@
       <c r="C4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -475,10 +490,13 @@
         <v>2.4</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -486,45 +504,108 @@
         <v>2.4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>190</v>
+      </c>
+      <c r="D9">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
